--- a/Assignment3/MatrixMultiplication/DataMM.xlsx
+++ b/Assignment3/MatrixMultiplication/DataMM.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitrihooftman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitrihooftman/Desktop/PerformanceEngineering/performance-engineering/Assignment3/MatrixMultiplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B24C20-CD8E-3440-8278-9A547031D602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F3EB7-CA4C-1F46-B2E4-723E01742155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4220" windowWidth="38400" windowHeight="21600" xr2:uid="{5A3C439C-579D-0240-9745-8FE294455EA8}"/>
+    <workbookView xWindow="-38400" yWindow="-3720" windowWidth="38400" windowHeight="21100" xr2:uid="{5A3C439C-579D-0240-9745-8FE294455EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,20 +197,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -534,7 +534,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,21 +550,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="6" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -620,10 +620,10 @@
         <v>101646</v>
       </c>
       <c r="H3">
-        <f>(F3 - G3) / F3</f>
-        <v>0.88191627284513407</v>
-      </c>
-      <c r="I3" s="5">
+        <f>ROUND(((F3 - G3) / F3) * 100, 0)</f>
+        <v>88</v>
+      </c>
+      <c r="I3" s="2">
         <v>1002588804</v>
       </c>
     </row>
@@ -650,10 +650,10 @@
         <v>505408</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H10" si="0">(F4 - G4) / F4</f>
-        <v>0.85676365810870936</v>
-      </c>
-      <c r="I4" s="5">
+        <f t="shared" ref="H4:H10" si="0">ROUND(((F4 - G4) / F4) * 100, 0)</f>
+        <v>86</v>
+      </c>
+      <c r="I4" s="2">
         <v>2082082558</v>
       </c>
     </row>
@@ -681,9 +681,9 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.85292803574277964</v>
-      </c>
-      <c r="I5" s="5">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2">
         <v>1757486227</v>
       </c>
     </row>
@@ -711,9 +711,9 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.81573078754165729</v>
-      </c>
-      <c r="I6" s="5">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2">
         <v>413878924</v>
       </c>
     </row>
@@ -741,9 +741,9 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.76272310943361821</v>
-      </c>
-      <c r="I7" s="5">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2">
         <v>1093260170</v>
       </c>
     </row>
@@ -771,9 +771,9 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.7978341243119379</v>
-      </c>
-      <c r="I8" s="5">
+        <v>80</v>
+      </c>
+      <c r="I8" s="2">
         <v>588691996</v>
       </c>
     </row>
@@ -801,9 +801,9 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.82477685603276274</v>
-      </c>
-      <c r="I9" s="5">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2">
         <v>1316248350</v>
       </c>
     </row>
@@ -831,9 +831,9 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.80244234496950262</v>
-      </c>
-      <c r="I10" s="5">
+        <v>80</v>
+      </c>
+      <c r="I10" s="2">
         <v>546011445</v>
       </c>
       <c r="L10" t="s">

--- a/Assignment3/MatrixMultiplication/DataMM.xlsx
+++ b/Assignment3/MatrixMultiplication/DataMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitrihooftman/Desktop/PerformanceEngineering/performance-engineering/Assignment3/MatrixMultiplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F3EB7-CA4C-1F46-B2E4-723E01742155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A7C26D-EFC7-E64B-96EF-5C109FB33C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3720" windowWidth="38400" windowHeight="21100" xr2:uid="{5A3C439C-579D-0240-9745-8FE294455EA8}"/>
   </bookViews>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F331EBB-3658-5B47-9DDA-F500350F20CC}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,7 +650,7 @@
         <v>505408</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H10" si="0">ROUND(((F4 - G4) / F4) * 100, 0)</f>
+        <f t="shared" ref="H4:H22" si="0">ROUND(((F4 - G4) / F4) * 100, 0)</f>
         <v>86</v>
       </c>
       <c r="I4" s="2">
@@ -838,6 +838,366 @@
       </c>
       <c r="L10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>98</v>
+      </c>
+      <c r="B11">
+        <v>461</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>23837684</v>
+      </c>
+      <c r="E11">
+        <v>25093083</v>
+      </c>
+      <c r="F11">
+        <v>28747</v>
+      </c>
+      <c r="G11">
+        <v>14260</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I11" s="2">
+        <v>13678482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>439</v>
+      </c>
+      <c r="C12">
+        <v>612</v>
+      </c>
+      <c r="D12">
+        <v>1132344495</v>
+      </c>
+      <c r="E12">
+        <v>610098078</v>
+      </c>
+      <c r="F12">
+        <v>301008</v>
+      </c>
+      <c r="G12">
+        <v>71408</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="I12" s="2">
+        <v>399326069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>460</v>
+      </c>
+      <c r="B13">
+        <v>689</v>
+      </c>
+      <c r="C13">
+        <v>809</v>
+      </c>
+      <c r="D13">
+        <v>8093239977</v>
+      </c>
+      <c r="E13">
+        <v>3391057734</v>
+      </c>
+      <c r="F13">
+        <v>3005137</v>
+      </c>
+      <c r="G13">
+        <v>621630</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1826409408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>873</v>
+      </c>
+      <c r="B14">
+        <v>987</v>
+      </c>
+      <c r="C14">
+        <v>611</v>
+      </c>
+      <c r="D14">
+        <v>16537254902</v>
+      </c>
+      <c r="E14">
+        <v>6606571601</v>
+      </c>
+      <c r="F14">
+        <v>6412068</v>
+      </c>
+      <c r="G14">
+        <v>1179174</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3153030696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>263</v>
+      </c>
+      <c r="B15">
+        <v>542</v>
+      </c>
+      <c r="C15">
+        <v>682</v>
+      </c>
+      <c r="D15">
+        <v>3101765457</v>
+      </c>
+      <c r="E15">
+        <v>1329933418</v>
+      </c>
+      <c r="F15">
+        <v>893578</v>
+      </c>
+      <c r="G15">
+        <v>44167</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="I15" s="2">
+        <v>850191702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>836</v>
+      </c>
+      <c r="C16">
+        <v>710</v>
+      </c>
+      <c r="D16">
+        <v>935857312</v>
+      </c>
+      <c r="E16">
+        <v>474943232</v>
+      </c>
+      <c r="F16">
+        <v>344619</v>
+      </c>
+      <c r="G16">
+        <v>122864</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I16" s="2">
+        <v>303112921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>992</v>
+      </c>
+      <c r="B17">
+        <v>403</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>242708708</v>
+      </c>
+      <c r="E17">
+        <v>160322043</v>
+      </c>
+      <c r="F17">
+        <v>31848</v>
+      </c>
+      <c r="G17">
+        <v>16287</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I17" s="2">
+        <v>101737111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>733</v>
+      </c>
+      <c r="B18">
+        <v>339</v>
+      </c>
+      <c r="C18">
+        <v>385</v>
+      </c>
+      <c r="D18">
+        <v>3051855365</v>
+      </c>
+      <c r="E18">
+        <v>1353288115</v>
+      </c>
+      <c r="F18">
+        <v>588402</v>
+      </c>
+      <c r="G18">
+        <v>66978</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="I18" s="2">
+        <v>711956200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>973</v>
+      </c>
+      <c r="B19">
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <v>942</v>
+      </c>
+      <c r="D19">
+        <v>2851377745</v>
+      </c>
+      <c r="E19">
+        <v>1188223003</v>
+      </c>
+      <c r="F19">
+        <v>542545</v>
+      </c>
+      <c r="G19">
+        <v>100067</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="I19" s="2">
+        <v>773122899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>654</v>
+      </c>
+      <c r="B20">
+        <v>959</v>
+      </c>
+      <c r="C20">
+        <v>638</v>
+      </c>
+      <c r="D20">
+        <v>12589054691</v>
+      </c>
+      <c r="E20">
+        <v>5471941717</v>
+      </c>
+      <c r="F20">
+        <v>4843469</v>
+      </c>
+      <c r="G20">
+        <v>786366</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2593891840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>182</v>
+      </c>
+      <c r="C21">
+        <v>700</v>
+      </c>
+      <c r="D21">
+        <v>221359403</v>
+      </c>
+      <c r="E21">
+        <v>140658675</v>
+      </c>
+      <c r="F21">
+        <v>64140</v>
+      </c>
+      <c r="G21">
+        <v>23956</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="I21" s="2">
+        <v>97192970</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>791</v>
+      </c>
+      <c r="B22">
+        <v>197</v>
+      </c>
+      <c r="C22">
+        <v>434</v>
+      </c>
+      <c r="D22">
+        <v>2166540466</v>
+      </c>
+      <c r="E22">
+        <v>1072472631</v>
+      </c>
+      <c r="F22">
+        <v>338962</v>
+      </c>
+      <c r="G22">
+        <v>63584</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="I22" s="2">
+        <v>689245593</v>
       </c>
     </row>
   </sheetData>
